--- a/content/drafts/entitats/Codis_Organitzacio_DireccionsGenerals.xlsx
+++ b/content/drafts/entitats/Codis_Organitzacio_DireccionsGenerals.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\08.Proposta_noves_ER_Desembre19\____NovesERs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\06.OIAD_Paquet_03\02.Direccions_generals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4826EE3F-CF66-497E-A923-9DE8C4BB6449}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E827BAC-2D4F-4619-B2AD-30AEA9E21654}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DireccionsGenerals" sheetId="1" r:id="rId1"/>
+    <sheet name="Direccions generals" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>Codi</t>
   </si>
@@ -321,10 +321,10 @@
     <t>Direcció General dels Agents Rurals</t>
   </si>
   <si>
-    <t>Codis_Organitzacio_DireccionsGenerals</t>
-  </si>
-  <si>
     <t>Codi Departament</t>
+  </si>
+  <si>
+    <t>Direccions generals</t>
   </si>
 </sst>
 </file>
@@ -831,23 +831,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="76.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,12 +855,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -869,9 +869,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -880,9 +880,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -891,9 +891,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>4</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -902,9 +902,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>5</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -913,9 +913,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>6</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -924,9 +924,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>7</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -935,9 +935,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>8</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
@@ -946,9 +946,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>9</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -968,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>63</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>71</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>75</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -1786,7 +1786,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C88:C950 C4:C87" numberStoredAsText="1"/>
+    <ignoredError sqref="C88:C950 C4:C87 A4:A12" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1795,6 +1795,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1803,7 +1812,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1935,16 +1944,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1952,7 +1968,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1968,20 +1984,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>